--- a/biology/Zoologie/Bouba/Bouba.xlsx
+++ b/biology/Zoologie/Bouba/Bouba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bouba (シートン動物記　くまの子ジャッキー, Seton Dōbutsuki Kuma no ko Jacky?) est une série télévisée d'animation japonaise en 26 épisodes de 26 minutes créée par Nippon Animation et diffusée entre le 7 juin et le 6 décembre 1977 sur TV Asahi.  La série est basée sur une histoire d'Ernest Thompson Seton, Monarch, the Big Bear of Tallac (1904).
 En France, la série a été diffusée à partir du 21 décembre 1981 sur FR3 dans l'émission FR3 Jeunesse, en 2003 sur France 5 dans l'émission Midi les Zouzous, et à partir du 12 septembre 2011 sur Tiji.
-Depuis le 21 juillet 2015, l'anime est diffusé sur YouTube[1] sur la chaine Studio100 KIDS Français.
+Depuis le 21 juillet 2015, l'anime est diffusé sur YouTube sur la chaine Studio100 KIDS Français.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série destinée aux jeunes enfants met en scène les aventures du petit ourson Bouba et de sa sœur Frisquette, qui ont été recueillis par Moy (un petit garçon amérindien) à la mort de leur mère Amandine.
 L’action se situe à la fin du XIXe siècle, dans la Sierra Nevada, sur les flancs du mont Tallac. Amandine, « la reine de la montagne », est une ourse de taille monumentale respectée par les tribus indiennes. Au début de la série, elle sort d’hibernation avec ses jumeaux nouveau-nés, Bouba et Frisquette, qu’elle entreprend d’éduquer. Bouba s’éloigne un jour de sa mère et rencontre Moy ; l’enfant et l’ourson se prennent d’amitié. Amandine met cependant en garde ses petits contre les hommes, qu’elle présente comme les « animaux les plus dangereux de la forêt ».
@@ -547,7 +561,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amandine : maman ourse, mère de Bouba et Frisquette, de taille exceptionnelle. Elle est vénérée par les tribus indiennes locales qui voient en elle l’incarnation de l’Esprit de la montagne. Elle est abattue par Daklahoma alors qu’elle menaçait M. Forestier pour protéger ses oursons.
 Bouba : ourson brun, personnage éponyme. Il doit son nom à Moy qui l’a nommé ainsi en hommage à un grand chef de sa tribu. Têtu et bagarreur. Il échappe de peu à la mort après qu’un aigle l’a emporté dans son nid.
@@ -588,8 +604,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1er doublage (1981)
-Francette Vernillat : Bouba
+          <t>1er doublage (1981)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Francette Vernillat : Bouba
 Jane Val : Frisquette / Amandine
 Arlette Thomas : Moy
 Daniel Gall : Daklahoma
@@ -600,9 +621,43 @@
 Serge Lhorca : Paco
 Francine Lainé : Hélène, la gouvernante de Joy / Mme Forestier
 Jacques Torrens : Cooks, l'employé de M. Forestier
-Claude Nicot : Narrateur
-2d doublage (2003)
-Un second doublage a été enregistré en 2003. C'est avec celui-ci que la série a été rediffusée la même année sur France 5 et Tiji.
+Claude Nicot : Narrateur</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bouba</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouba</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2d doublage (2003)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un second doublage a été enregistré en 2003. C'est avec celui-ci que la série a été rediffusée la même année sur France 5 et Tiji.
 Brigitte Lecordier : Bouba
 Chantal Macé : Frisquette / Joy
 Stéphanie Lafforgue : Moy / Mme Forestier
@@ -614,31 +669,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Bouba</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bouba</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Réalisation : Yoshihirô Kuroda et Fumio Kurokawa
 Scénario : Ryuzo Nakanishi d'après le personnage d'Ernest Thompson Seton
@@ -647,31 +704,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bouba</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bouba</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le début d'une amitié
@@ -704,31 +763,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Bouba</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bouba</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Version française</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La version française du générique est interprétée par Chantal Goya et fut écrite et composée par Jean-Jacques Debout en 1981. Bouba devait à l'origine s'appeler Jacky le petit ourson mais le nom déplaisait à Jean-Jacques Debout qui a demandé à Bruno Huchez la permission de changer le nom dans la version française.
 La version française commence avec un anachronisme : elle situe l'action « quelques années avant l'indépendance des États-Unis » dans la Sierra Nevada. L'indépendance des États-Unis fut proclamée en 1776, bien avant la conquête de l'Ouest (la Sierra Nevada, où se situe l'action de Bouba, ne sera atteinte par les colons qu’à la seconde moitié du XIXe siècle), la guerre de Sécession (1861-1865) à laquelle l'Oncle Émile a participé, et l'écriture de Oh my Darling Clementine (1883).</t>
